--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1126726.957356281</v>
+        <v>-1133737.686472275</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>298.2843853399742</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>177.4431488285279</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614972</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>67.27299984147491</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -823,22 +823,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>68.48573966753925</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>265.0445660227803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>324.9401250096099</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>207.8384936477635</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>61.13689540423923</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>116.876383545772</v>
+        <v>194.495881463006</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>261.2243503854153</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.1445242432434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.72455305259771</v>
+        <v>114.6722806951648</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>195.6285265675845</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>40.25429961617139</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>71.53011896951563</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>4.867703352825919</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>180.4263471442199</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>125.0168986089609</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>89.49359255331009</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1822,10 +1822,10 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>51.26714205143469</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574973</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564985</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167818</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196058</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380031</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667942</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644669</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883882</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541087</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.9835613365828</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038713</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656603</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.270379647086</v>
+        <v>1332.560782809042</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.973020717819</v>
+        <v>939.3852813119727</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.973020717819</v>
+        <v>553.9441525286404</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>553.9441525286404</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1028.526606934763</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737747</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.269414678798</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.270379647086</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.270379647086</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.270379647086</v>
+        <v>1733.055528520439</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>710.7802625178497</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946027</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777345</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777345</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>2036.433443595207</v>
+        <v>1872.013835936254</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>862.576596958811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="C4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="D4" t="n">
-        <v>198.974210433261</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="E4" t="n">
-        <v>198.974210433261</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>875.7651671206112</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>640.0461152888453</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="V4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="W4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="X4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.6073235307462</v>
+        <v>551.3274960690737</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1709.092367800868</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.916866303798</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>1106.9714011964</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>114.5970879866878</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475495</v>
+        <v>114.5970879866878</v>
       </c>
       <c r="L5" t="n">
-        <v>320.4858080663427</v>
+        <v>607.9173797052166</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764351</v>
+        <v>1121.520058314904</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713897</v>
+        <v>1635.122736924592</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172346</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="V5" t="n">
-        <v>1709.092367800868</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.092367800868</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="X5" t="n">
-        <v>1709.092367800868</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1709.092367800868</v>
+        <v>1509.554926079856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>733.1765977824073</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>582.5223673424995</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>452.4333999639798</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>315.9869090748675</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>191.5551029579993</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591876</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1706.251474293496</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1483.711472664563</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1253.59422679785</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1064.287149147861</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>884.9729322233686</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475495</v>
+        <v>227.440329071034</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>227.440329071034</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>227.440329071034</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>826.88572885977</v>
+        <v>510.7707311398564</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9063836805942</v>
+        <v>510.7707311398564</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5759816117719</v>
+        <v>227.440329071034</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475495</v>
+        <v>227.440329071034</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475495</v>
+        <v>227.440329071034</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.7095233437991</v>
+        <v>1585.054036354824</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>1321.191056167535</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
         <v>518.8554889141809</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>265.4829774041385</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="Y8" t="n">
-        <v>531.7095233437991</v>
+        <v>1985.548782066221</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -5002,10 +5002,10 @@
         <v>427.6021490532311</v>
       </c>
       <c r="X10" t="n">
-        <v>427.6021490532311</v>
+        <v>193.5218268362142</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1885.729127134341</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="C11" t="n">
-        <v>1564.349900783465</v>
+        <v>1092.310303105548</v>
       </c>
       <c r="D11" t="n">
-        <v>1250.705047146327</v>
+        <v>778.6654494684093</v>
       </c>
       <c r="E11" t="n">
-        <v>919.9177974090649</v>
+        <v>447.8781997311477</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>102.7800364073192</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>102.7800364073192</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>102.7800364073192</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988294</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067545</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.729127134341</v>
+        <v>1742.388000021626</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.4198987343948</v>
+        <v>426.1976847794384</v>
       </c>
       <c r="C13" t="n">
-        <v>461.4198987343948</v>
+        <v>327.7888419916215</v>
       </c>
       <c r="D13" t="n">
-        <v>461.4198987343948</v>
+        <v>327.7888419916215</v>
       </c>
       <c r="E13" t="n">
-        <v>377.6573617397912</v>
+        <v>327.7888419916215</v>
       </c>
       <c r="F13" t="n">
-        <v>292.1277020989577</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>195.6699233445971</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,10 +5200,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1491.815769740946</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1360.795961069689</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1196.873184384117</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310117</v>
+        <v>983.2306677722116</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.965602310117</v>
+        <v>789.0475977392298</v>
       </c>
       <c r="W13" t="n">
-        <v>888.4314753874879</v>
+        <v>577.5134708166012</v>
       </c>
       <c r="X13" t="n">
-        <v>726.1474283166649</v>
+        <v>577.5134708166012</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.8316422795021</v>
+        <v>426.1976847794384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009978</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>986.5596330944958</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E14" t="n">
-        <v>655.772383357234</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575181</v>
+        <v>1894.092327316015</v>
       </c>
     </row>
     <row r="15">
@@ -5367,7 +5367,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>297.4971220488229</v>
+        <v>315.1679011885522</v>
       </c>
       <c r="C16" t="n">
-        <v>207.0995538131559</v>
+        <v>315.1679011885522</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0995538131559</v>
+        <v>231.3310632372608</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131559</v>
+        <v>231.3310632372608</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245445</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W16" t="n">
-        <v>724.508698701916</v>
+        <v>742.1794778416454</v>
       </c>
       <c r="X16" t="n">
-        <v>562.224651631093</v>
+        <v>579.8954307708224</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.9088655939303</v>
+        <v>428.5796447336596</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122989</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5844,7 +5844,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
@@ -6078,13 +6078,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>3135.209895105042</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236564</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
         <v>3668.242947377513</v>
@@ -6254,7 +6254,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>2273.334693965057</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,10 +6382,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225742</v>
@@ -6397,7 +6397,7 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6552,7 +6552,7 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>2273.334693965057</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>292.5019091060146</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>651.4842651334765</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1256.456677426988</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1802.457577471569</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2330.268861109031</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2770.30846200136</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3118.495954132881</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1090.126239096134</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071527</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927170946</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>501.1958531658773</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458844</v>
+        <v>687.4874315041413</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041639</v>
+        <v>870.6770655353506</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872942</v>
+        <v>1145.033953152042</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,25 +6959,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>378.9738643893075</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7263,10 +7263,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7427,34 +7427,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411555</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411555</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229973</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222416</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960414</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343054</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655146</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072227</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,13 +7725,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
         <v>568.1699486069232</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128482</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>637.999022549378</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376797</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>232.4345549924652</v>
+        <v>297.8880658390576</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>191.5120008012848</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>433.0361986916914</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.055528126942</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>485.8810686938566</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>363.4321479293332</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>502.5559668112513</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>324.3235533562099</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9015,10 +9015,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9492,10 +9492,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701423</v>
       </c>
       <c r="O27" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,10 +10200,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O30" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>409.6522249143353</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,16 +11373,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>146.0186551230055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.6211337275565</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.3153341638731</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.71596372619069</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>144.985138715331</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>185.4915064918061</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.931161806628637</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.1516436019675</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="C2" t="n">
         <v>108199.3068560141</v>
@@ -26323,7 +26323,7 @@
         <v>95615.41405464026</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464028</v>
+        <v>95615.41405464023</v>
       </c>
       <c r="G2" t="n">
         <v>108199.306856014</v>
@@ -26335,19 +26335,19 @@
         <v>108199.3068560141</v>
       </c>
       <c r="J2" t="n">
+        <v>108199.3068560141</v>
+      </c>
+      <c r="K2" t="n">
         <v>108199.306856014</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>108199.3068560141</v>
-      </c>
-      <c r="L2" t="n">
-        <v>108199.3068560139</v>
       </c>
       <c r="M2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="N2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="O2" t="n">
         <v>108199.3068560141</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539689</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307896.045800166</v>
+        <v>-304747.6952133919</v>
       </c>
       <c r="C6" t="n">
-        <v>-125691.0975083102</v>
+        <v>-130889.0381793368</v>
       </c>
       <c r="D6" t="n">
-        <v>-130554.3798021854</v>
+        <v>-138290.669025577</v>
       </c>
       <c r="E6" t="n">
-        <v>-143777.6626429823</v>
+        <v>-143987.3941896718</v>
       </c>
       <c r="F6" t="n">
-        <v>-31655.1011689377</v>
+        <v>-31864.8327156273</v>
       </c>
       <c r="G6" t="n">
-        <v>-119239.2000115072</v>
+        <v>-119239.2000115073</v>
       </c>
       <c r="H6" t="n">
-        <v>-71813.87447482525</v>
+        <v>-71813.87447482526</v>
       </c>
       <c r="I6" t="n">
-        <v>-71813.87447482524</v>
+        <v>-71813.87447482526</v>
       </c>
       <c r="J6" t="n">
-        <v>-284855.7920721107</v>
+        <v>-278339.5069175375</v>
       </c>
       <c r="K6" t="n">
-        <v>-78053.64287760816</v>
+        <v>-78053.64287760822</v>
       </c>
       <c r="L6" t="n">
-        <v>-133236.2318122296</v>
+        <v>-137285.0690227017</v>
       </c>
       <c r="M6" t="n">
-        <v>-114014.7039344483</v>
+        <v>-115066.3989456364</v>
       </c>
       <c r="N6" t="n">
-        <v>-71813.87447482524</v>
+        <v>-71813.87447482531</v>
       </c>
       <c r="O6" t="n">
         <v>-99581.56851759648</v>
       </c>
       <c r="P6" t="n">
-        <v>-71813.87447482518</v>
+        <v>-71813.87447482524</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924612</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.95936114212446</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>235.2823452567941</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,10 +27436,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925536</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>153.0416017711687</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>132.3021833117369</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.5398378177378</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>87.78536907571208</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>130.8472475557533</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>57.72232434461497</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>165.708020294746</v>
+        <v>88.08852237751211</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>128.0193960966834</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.3812777453615</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.1563875189254</v>
+        <v>106.2086598763582</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668774</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,49 +29272,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>86.65052755599584</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893079</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833086</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224698</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253943</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,20 +30402,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>35.71049010668813</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668855</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>28.01250026485212</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.01250026485215</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>35.7104901066885</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>488.2739709516508</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135833</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7469961035763</v>
+        <v>205.2005069501687</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.83216285893874</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>279.7880289611997</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776302</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>400.50895583969</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>220.3737447500958</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>231.936431306898</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35735,10 +35735,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528664</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36212,10 +36212,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,16 +36601,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>638.1665882070873</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017816</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="O27" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>531.1349729017816</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O30" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>227.2189631350198</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341172</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537681</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>76.79385455031074</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653314</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>320.0552895810019</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>119.5613130890187</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>220.7505244816469</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065888</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529475</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38178,7 +38178,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868721</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>156.7975262446467</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
